--- a/Material/Inventory.xlsx
+++ b/Material/Inventory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Resistor" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="351">
   <si>
     <t>Type</t>
   </si>
@@ -999,6 +999,204 @@
   </si>
   <si>
     <t>16V</t>
+  </si>
+  <si>
+    <t>Vfwd</t>
+  </si>
+  <si>
+    <t>VBR</t>
+  </si>
+  <si>
+    <t>3V0</t>
+  </si>
+  <si>
+    <t>Zener</t>
+  </si>
+  <si>
+    <t>3V3</t>
+  </si>
+  <si>
+    <t>3V9</t>
+  </si>
+  <si>
+    <t>4V7</t>
+  </si>
+  <si>
+    <t>5V1</t>
+  </si>
+  <si>
+    <t>7V5</t>
+  </si>
+  <si>
+    <t>8V2</t>
+  </si>
+  <si>
+    <t>10V</t>
+  </si>
+  <si>
+    <t>12V</t>
+  </si>
+  <si>
+    <t>15V</t>
+  </si>
+  <si>
+    <t>18V</t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>LL34</t>
+  </si>
+  <si>
+    <t>1/2W</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/LL34-SMD-Zener-diode-package-1-2W-3v-24v-15-kinds-of-commonly-used-each-containing/32291871382.html?spm=a2g0s.9042311.0.0.6b374c4dkPcxBY</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>1V</t>
+  </si>
+  <si>
+    <t>Fast switching diode</t>
+  </si>
+  <si>
+    <t>Ifwr_cont</t>
+  </si>
+  <si>
+    <t>200mA</t>
+  </si>
+  <si>
+    <t>100V</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>3R3</t>
+  </si>
+  <si>
+    <t>5R1</t>
+  </si>
+  <si>
+    <t>1k8</t>
+  </si>
+  <si>
+    <t>7k5</t>
+  </si>
+  <si>
+    <t>12k</t>
+  </si>
+  <si>
+    <t>18k</t>
+  </si>
+  <si>
+    <t>33k</t>
+  </si>
+  <si>
+    <t>43k</t>
+  </si>
+  <si>
+    <t>75k</t>
+  </si>
+  <si>
+    <t>200k</t>
+  </si>
+  <si>
+    <t>390k</t>
+  </si>
+  <si>
+    <t>1N4007</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/Free-Shipping-One-Lot-100pcs-SMD-1N4007-Rectifier-Diode-1A-1000V-M7-Original/2040778759.html?spm=a2g0s.9042311.0.0.6b374c4dkPcxBY</t>
+  </si>
+  <si>
+    <t>Rectifier</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>1kV</t>
+  </si>
+  <si>
+    <t>http://www.sycelectronica.com.ar/semiconductores/1N4007-SMD.pdf</t>
+  </si>
+  <si>
+    <t>DO-214AC(SMA)</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>SS14</t>
+  </si>
+  <si>
+    <t>SS24</t>
+  </si>
+  <si>
+    <t>RS1M</t>
+  </si>
+  <si>
+    <t>US1M</t>
+  </si>
+  <si>
+    <t>SS34</t>
+  </si>
+  <si>
+    <t>SS36</t>
+  </si>
+  <si>
+    <t>SS26</t>
+  </si>
+  <si>
+    <t>RS2M</t>
+  </si>
+  <si>
+    <t>SS110</t>
+  </si>
+  <si>
+    <t>SS220</t>
+  </si>
+  <si>
+    <t>SS210</t>
+  </si>
+  <si>
+    <t>SS310</t>
+  </si>
+  <si>
+    <t>SS510</t>
+  </si>
+  <si>
+    <t>SS16</t>
+  </si>
+  <si>
+    <t>ES1J</t>
+  </si>
+  <si>
+    <t>ES1D</t>
+  </si>
+  <si>
+    <t>ES1M</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/200pcs-lot-SMD-diode-Assorted-Kit-20value-10PCS-contains-SS110-SS220-SS210-SS310-SS510-SS16-SS26/32843976871.html?spm=a2g0s.9042311.0.0.6b374c4dkPcxBY</t>
+  </si>
+  <si>
+    <t>1,1V</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1090,6 +1288,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1395,11 +1599,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32:G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,7 +1612,7 @@
     <col min="2" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1431,10 +1635,13 @@
         <v>120</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D2" s="2">
         <v>10</v>
       </c>
@@ -1445,13 +1652,16 @@
         <v>153</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H2" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" s="2">
         <v>22</v>
       </c>
@@ -1462,13 +1672,16 @@
         <v>153</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H3" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D4" s="2">
         <v>47</v>
       </c>
@@ -1479,13 +1692,16 @@
         <v>153</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H4" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D5" s="2">
         <v>100</v>
       </c>
@@ -1496,13 +1712,16 @@
         <v>153</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H5" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D6" s="2">
         <v>150</v>
       </c>
@@ -1513,13 +1732,16 @@
         <v>153</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H6" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="2">
         <v>200</v>
       </c>
@@ -1530,13 +1752,16 @@
         <v>153</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H7" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D8" s="2">
         <v>220</v>
       </c>
@@ -1547,13 +1772,16 @@
         <v>153</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D9" s="2">
         <v>270</v>
       </c>
@@ -1564,13 +1792,16 @@
         <v>153</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H9" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D10" s="2">
         <v>330</v>
       </c>
@@ -1581,13 +1812,16 @@
         <v>153</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H10" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D11" s="2">
         <v>470</v>
       </c>
@@ -1598,13 +1832,16 @@
         <v>153</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H11" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D12" s="2">
         <v>510</v>
       </c>
@@ -1615,13 +1852,16 @@
         <v>153</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H12" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D13" s="2">
         <v>680</v>
       </c>
@@ -1632,13 +1872,16 @@
         <v>153</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H13" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14" s="2" t="s">
         <v>154</v>
       </c>
@@ -1649,13 +1892,16 @@
         <v>153</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H14" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
         <v>155</v>
       </c>
@@ -1666,13 +1912,16 @@
         <v>153</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H15" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D16" s="2" t="s">
         <v>156</v>
       </c>
@@ -1683,13 +1932,16 @@
         <v>153</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H16" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D17" s="2" t="s">
         <v>157</v>
       </c>
@@ -1700,13 +1952,16 @@
         <v>153</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H17" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D18" s="2" t="s">
         <v>158</v>
       </c>
@@ -1717,13 +1972,16 @@
         <v>153</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H18" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D19" s="2" t="s">
         <v>159</v>
       </c>
@@ -1734,13 +1992,16 @@
         <v>153</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H19" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D20" s="2" t="s">
         <v>160</v>
       </c>
@@ -1751,13 +2012,16 @@
         <v>153</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H20" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="2" t="s">
         <v>171</v>
       </c>
@@ -1768,13 +2032,16 @@
         <v>153</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H21" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D22" s="2" t="s">
         <v>161</v>
       </c>
@@ -1785,13 +2052,16 @@
         <v>153</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H22" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D23" s="2" t="s">
         <v>162</v>
       </c>
@@ -1802,13 +2072,16 @@
         <v>153</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H23" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D24" s="2" t="s">
         <v>163</v>
       </c>
@@ -1819,13 +2092,16 @@
         <v>153</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H24" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D25" s="2" t="s">
         <v>164</v>
       </c>
@@ -1836,13 +2112,16 @@
         <v>153</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H25" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D26" s="2" t="s">
         <v>165</v>
       </c>
@@ -1853,13 +2132,16 @@
         <v>153</v>
       </c>
       <c r="G26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H26" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D27" s="2" t="s">
         <v>166</v>
       </c>
@@ -1870,13 +2152,16 @@
         <v>153</v>
       </c>
       <c r="G27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H27" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D28" s="2" t="s">
         <v>167</v>
       </c>
@@ -1887,13 +2172,16 @@
         <v>153</v>
       </c>
       <c r="G28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H28" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D29" s="2" t="s">
         <v>168</v>
       </c>
@@ -1904,13 +2192,16 @@
         <v>153</v>
       </c>
       <c r="G29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H29" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="2" t="s">
         <v>169</v>
       </c>
@@ -1921,13 +2212,16 @@
         <v>153</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H30" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D31" s="2" t="s">
         <v>170</v>
       </c>
@@ -1938,9 +2232,573 @@
         <v>153</v>
       </c>
       <c r="G31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H31" s="2">
+      <c r="I31" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I32" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I33" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I34" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="2">
+        <v>10</v>
+      </c>
+      <c r="E35" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I35" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D36" s="2">
+        <v>22</v>
+      </c>
+      <c r="E36" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I36" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D37" s="2">
+        <v>47</v>
+      </c>
+      <c r="E37" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I37" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D38" s="2">
+        <v>62</v>
+      </c>
+      <c r="E38" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I38" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D39" s="2">
+        <v>8</v>
+      </c>
+      <c r="E39" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I39" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D40" s="2">
+        <v>100</v>
+      </c>
+      <c r="E40" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I40" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D41" s="2">
+        <v>150</v>
+      </c>
+      <c r="E41" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I41" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D42" s="2">
+        <v>330</v>
+      </c>
+      <c r="E42" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I42" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D43" s="2">
+        <v>470</v>
+      </c>
+      <c r="E43" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I43" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D44" s="2">
+        <v>680</v>
+      </c>
+      <c r="E44" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I44" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D45" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I45" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D46" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E46" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I46" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D47" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E47" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I47" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D48" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I48" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D49" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E49" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I49" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D50" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E50" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I50" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D51" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I51" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D52" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E52" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I52" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D53" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E53" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I53" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D54" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E54" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I54" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D55" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E55" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I55" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D56" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E56" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I56" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D57" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E57" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I57" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D58" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E58" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I58" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D59" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E59" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I59" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D60" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E60" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I60" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D61" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E61" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I61" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D62" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E62" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I62" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D63" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E63" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I63" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D64" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E64" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I64" s="2">
         <v>20</v>
       </c>
     </row>
@@ -1951,11 +2809,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,7 +2821,7 @@
     <col min="1" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1989,10 +2847,13 @@
         <v>120</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D2" s="2" t="s">
         <v>175</v>
       </c>
@@ -2005,11 +2866,11 @@
       <c r="H2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
         <v>176</v>
       </c>
@@ -2022,11 +2883,11 @@
       <c r="H3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
         <v>177</v>
       </c>
@@ -2039,11 +2900,11 @@
       <c r="H4" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
         <v>178</v>
       </c>
@@ -2056,11 +2917,11 @@
       <c r="H5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
         <v>179</v>
       </c>
@@ -2073,11 +2934,11 @@
       <c r="H6" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>180</v>
       </c>
@@ -2090,11 +2951,11 @@
       <c r="H7" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
         <v>181</v>
       </c>
@@ -2107,11 +2968,11 @@
       <c r="H8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
         <v>182</v>
       </c>
@@ -2124,11 +2985,11 @@
       <c r="H9" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
         <v>183</v>
       </c>
@@ -2141,11 +3002,11 @@
       <c r="H10" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" s="2" t="s">
         <v>184</v>
       </c>
@@ -2158,11 +3019,11 @@
       <c r="H11" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
         <v>185</v>
       </c>
@@ -2175,11 +3036,11 @@
       <c r="H12" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
         <v>186</v>
       </c>
@@ -2192,11 +3053,11 @@
       <c r="H13" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="2" t="s">
         <v>187</v>
       </c>
@@ -2209,11 +3070,11 @@
       <c r="H14" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
         <v>188</v>
       </c>
@@ -2226,11 +3087,11 @@
       <c r="H15" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="2" t="s">
         <v>189</v>
       </c>
@@ -2243,11 +3104,11 @@
       <c r="H16" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D17" s="2" t="s">
         <v>190</v>
       </c>
@@ -2260,11 +3121,11 @@
       <c r="H17" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J17" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D18" s="2" t="s">
         <v>191</v>
       </c>
@@ -2277,11 +3138,11 @@
       <c r="H18" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D19" s="2" t="s">
         <v>199</v>
       </c>
@@ -2294,11 +3155,11 @@
       <c r="H19" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J19" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D20" s="2" t="s">
         <v>192</v>
       </c>
@@ -2311,11 +3172,11 @@
       <c r="H20" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I20" s="2">
+      <c r="J20" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D21" s="2" t="s">
         <v>194</v>
       </c>
@@ -2328,11 +3189,11 @@
       <c r="H21" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I21" s="2">
+      <c r="J21" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D22" s="2" t="s">
         <v>195</v>
       </c>
@@ -2345,11 +3206,11 @@
       <c r="H22" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I22" s="2">
+      <c r="J22" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D23" s="2" t="s">
         <v>196</v>
       </c>
@@ -2362,11 +3223,11 @@
       <c r="H23" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I23" s="2">
+      <c r="J23" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D24" s="2" t="s">
         <v>197</v>
       </c>
@@ -2379,11 +3240,11 @@
       <c r="H24" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I24" s="2">
+      <c r="J24" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D25" s="2" t="s">
         <v>198</v>
       </c>
@@ -2396,11 +3257,11 @@
       <c r="H25" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I25" s="2">
+      <c r="J25" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D26" s="2" t="s">
         <v>200</v>
       </c>
@@ -2413,11 +3274,11 @@
       <c r="H26" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I26" s="2">
+      <c r="J26" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D27" s="2" t="s">
         <v>193</v>
       </c>
@@ -2430,11 +3291,11 @@
       <c r="H27" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I27" s="2">
+      <c r="J27" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D28" s="2" t="s">
         <v>201</v>
       </c>
@@ -2447,11 +3308,11 @@
       <c r="H28" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I28" s="2">
+      <c r="J28" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D29" s="2" t="s">
         <v>202</v>
       </c>
@@ -2464,11 +3325,11 @@
       <c r="H29" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I29" s="2">
+      <c r="J29" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D30" s="2" t="s">
         <v>203</v>
       </c>
@@ -2481,11 +3342,11 @@
       <c r="H30" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I30" s="2">
+      <c r="J30" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D31" s="2" t="s">
         <v>204</v>
       </c>
@@ -2498,11 +3359,11 @@
       <c r="H31" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I31" s="2">
+      <c r="J31" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D32" s="2" t="s">
         <v>272</v>
       </c>
@@ -2515,11 +3376,11 @@
       <c r="H32" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I32" s="2">
+      <c r="J32" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D33" s="2" t="s">
         <v>275</v>
       </c>
@@ -2532,11 +3393,11 @@
       <c r="H33" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I33" s="2">
+      <c r="J33" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D34" s="2" t="s">
         <v>276</v>
       </c>
@@ -2549,11 +3410,11 @@
       <c r="H34" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I34" s="2">
+      <c r="J34" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D35" s="2" t="s">
         <v>277</v>
       </c>
@@ -2566,11 +3427,11 @@
       <c r="H35" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I35" s="2">
+      <c r="J35" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D36" s="2" t="s">
         <v>273</v>
       </c>
@@ -2583,11 +3444,11 @@
       <c r="H36" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I36" s="2">
+      <c r="J36" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D37" s="2" t="s">
         <v>278</v>
       </c>
@@ -2600,11 +3461,11 @@
       <c r="H37" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I37" s="2">
+      <c r="J37" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D38" s="2" t="s">
         <v>279</v>
       </c>
@@ -2617,11 +3478,11 @@
       <c r="H38" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D39" s="2" t="s">
         <v>280</v>
       </c>
@@ -2634,11 +3495,11 @@
       <c r="H39" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I39" s="2">
+      <c r="J39" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D40" s="2" t="s">
         <v>274</v>
       </c>
@@ -2651,11 +3512,11 @@
       <c r="H40" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I40" s="2">
+      <c r="J40" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D41" s="2" t="s">
         <v>281</v>
       </c>
@@ -2668,11 +3529,11 @@
       <c r="H41" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I41" s="2">
+      <c r="J41" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D42" s="2" t="s">
         <v>282</v>
       </c>
@@ -2685,11 +3546,11 @@
       <c r="H42" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I42" s="2">
+      <c r="J42" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D43" s="2" t="s">
         <v>283</v>
       </c>
@@ -2702,8 +3563,280 @@
       <c r="H43" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I43" s="2">
+      <c r="J43" s="2">
         <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D44" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J44" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D45" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J45" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D46" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J46" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D47" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J47" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D48" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J48" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D49" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J49" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D50" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J50" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J51" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D52" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J52" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D53" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J53" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D54" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J54" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D55" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J55" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D56" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J56" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D57" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J57" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D58" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J58" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D59" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J59" s="2">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2715,8 +3848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2907,12 +4040,832 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O20" sqref="O20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I2" t="s">
+        <v>301</v>
+      </c>
+      <c r="J2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" t="s">
+        <v>300</v>
+      </c>
+      <c r="L2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F3" t="s">
+        <v>304</v>
+      </c>
+      <c r="G3" t="s">
+        <v>289</v>
+      </c>
+      <c r="I3" t="s">
+        <v>301</v>
+      </c>
+      <c r="J3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" t="s">
+        <v>300</v>
+      </c>
+      <c r="L3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G4" t="s">
+        <v>290</v>
+      </c>
+      <c r="I4" t="s">
+        <v>301</v>
+      </c>
+      <c r="J4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" t="s">
+        <v>300</v>
+      </c>
+      <c r="L4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G5" t="s">
+        <v>291</v>
+      </c>
+      <c r="I5" t="s">
+        <v>301</v>
+      </c>
+      <c r="J5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" t="s">
+        <v>300</v>
+      </c>
+      <c r="L5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G6" t="s">
+        <v>292</v>
+      </c>
+      <c r="I6" t="s">
+        <v>301</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>300</v>
+      </c>
+      <c r="L6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G7" t="s">
+        <v>293</v>
+      </c>
+      <c r="I7" t="s">
+        <v>301</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E8" t="s">
+        <v>288</v>
+      </c>
+      <c r="F8" t="s">
+        <v>304</v>
+      </c>
+      <c r="G8" t="s">
+        <v>294</v>
+      </c>
+      <c r="I8" t="s">
+        <v>301</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>300</v>
+      </c>
+      <c r="L8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E9" t="s">
+        <v>288</v>
+      </c>
+      <c r="F9" t="s">
+        <v>304</v>
+      </c>
+      <c r="G9" t="s">
+        <v>295</v>
+      </c>
+      <c r="I9" t="s">
+        <v>301</v>
+      </c>
+      <c r="J9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" t="s">
+        <v>300</v>
+      </c>
+      <c r="L9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F10" t="s">
+        <v>304</v>
+      </c>
+      <c r="G10" t="s">
+        <v>296</v>
+      </c>
+      <c r="I10" t="s">
+        <v>301</v>
+      </c>
+      <c r="J10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" t="s">
+        <v>300</v>
+      </c>
+      <c r="L10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E11" t="s">
+        <v>288</v>
+      </c>
+      <c r="F11" t="s">
+        <v>304</v>
+      </c>
+      <c r="G11" t="s">
+        <v>297</v>
+      </c>
+      <c r="I11" t="s">
+        <v>301</v>
+      </c>
+      <c r="J11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" t="s">
+        <v>300</v>
+      </c>
+      <c r="L11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E12" t="s">
+        <v>288</v>
+      </c>
+      <c r="F12" t="s">
+        <v>304</v>
+      </c>
+      <c r="G12" t="s">
+        <v>284</v>
+      </c>
+      <c r="I12" t="s">
+        <v>301</v>
+      </c>
+      <c r="J12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" t="s">
+        <v>300</v>
+      </c>
+      <c r="L12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E13" t="s">
+        <v>288</v>
+      </c>
+      <c r="F13" t="s">
+        <v>304</v>
+      </c>
+      <c r="G13" t="s">
+        <v>298</v>
+      </c>
+      <c r="I13" t="s">
+        <v>301</v>
+      </c>
+      <c r="J13" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" t="s">
+        <v>300</v>
+      </c>
+      <c r="L13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E14" t="s">
+        <v>288</v>
+      </c>
+      <c r="F14" t="s">
+        <v>304</v>
+      </c>
+      <c r="G14" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" t="s">
+        <v>301</v>
+      </c>
+      <c r="J14" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" t="s">
+        <v>300</v>
+      </c>
+      <c r="L14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F15" t="s">
+        <v>304</v>
+      </c>
+      <c r="G15" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" t="s">
+        <v>301</v>
+      </c>
+      <c r="J15" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" t="s">
+        <v>300</v>
+      </c>
+      <c r="L15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>299</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E16" t="s">
+        <v>306</v>
+      </c>
+      <c r="F16" t="s">
+        <v>305</v>
+      </c>
+      <c r="G16" t="s">
+        <v>309</v>
+      </c>
+      <c r="H16" t="s">
+        <v>308</v>
+      </c>
+      <c r="I16" t="s">
+        <v>301</v>
+      </c>
+      <c r="J16" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" t="s">
+        <v>300</v>
+      </c>
+      <c r="L16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>322</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="E17" t="s">
+        <v>324</v>
+      </c>
+      <c r="F17" t="s">
+        <v>305</v>
+      </c>
+      <c r="G17" t="s">
+        <v>326</v>
+      </c>
+      <c r="H17" t="s">
+        <v>325</v>
+      </c>
+      <c r="J17" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" t="s">
+        <v>328</v>
+      </c>
+      <c r="L17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>329</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E18" t="s">
+        <v>324</v>
+      </c>
+      <c r="F18" t="s">
+        <v>350</v>
+      </c>
+      <c r="G18" t="s">
+        <v>174</v>
+      </c>
+      <c r="H18" t="s">
+        <v>325</v>
+      </c>
+      <c r="J18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" t="s">
+        <v>328</v>
+      </c>
+      <c r="L18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>330</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E19" t="s">
+        <v>324</v>
+      </c>
+      <c r="F19" t="s">
+        <v>350</v>
+      </c>
+      <c r="G19" t="s">
+        <v>309</v>
+      </c>
+      <c r="H19" t="s">
+        <v>325</v>
+      </c>
+      <c r="J19" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" t="s">
+        <v>328</v>
+      </c>
+      <c r="L19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>331</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E20" t="s">
+        <v>324</v>
+      </c>
+      <c r="F20" t="s">
+        <v>350</v>
+      </c>
+      <c r="G20" t="s">
+        <v>326</v>
+      </c>
+      <c r="H20" t="s">
+        <v>325</v>
+      </c>
+      <c r="J20" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" t="s">
+        <v>328</v>
+      </c>
+      <c r="L20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="C17" r:id="rId17"/>
+    <hyperlink ref="D18" r:id="rId18"/>
+    <hyperlink ref="D19" r:id="rId19"/>
+    <hyperlink ref="D20" r:id="rId20"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Material/Inventory.xlsx
+++ b/Material/Inventory.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="404">
   <si>
     <t>Type</t>
   </si>
@@ -1197,6 +1197,165 @@
   </si>
   <si>
     <t>1,1V</t>
+  </si>
+  <si>
+    <t>Schottky Power Rectifier</t>
+  </si>
+  <si>
+    <t>0,47V</t>
+  </si>
+  <si>
+    <t>40V</t>
+  </si>
+  <si>
+    <t>DO-214AC(SMB)</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>https://www.vishay.com/docs/88748/ss22.pdf</t>
+  </si>
+  <si>
+    <t>https://www.onsemi.com/pub/Collateral/SS12-D.PDF</t>
+  </si>
+  <si>
+    <t>https://diotec.com/tl_files/diotec/files/pdf/datasheets/m1.pdf</t>
+  </si>
+  <si>
+    <t>https://www.vishay.com/docs/81857/1n4148.pdf</t>
+  </si>
+  <si>
+    <t>https://www.onsemi.com/pub/Collateral/RS1M-D.PDF</t>
+  </si>
+  <si>
+    <t>1,19W</t>
+  </si>
+  <si>
+    <t>1,3V</t>
+  </si>
+  <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>https://www.vishay.com/docs/88768/us1.pdf</t>
+  </si>
+  <si>
+    <t>Ultra Fast Rectifier</t>
+  </si>
+  <si>
+    <t>Fast Rectifier</t>
+  </si>
+  <si>
+    <t>1,7V</t>
+  </si>
+  <si>
+    <t>https://www.onsemi.com/pub/Collateral/SS39-D.PDF</t>
+  </si>
+  <si>
+    <t>Shottky Rectifier</t>
+  </si>
+  <si>
+    <t>60V</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>2,27W</t>
+  </si>
+  <si>
+    <t>500mV</t>
+  </si>
+  <si>
+    <t>750mV</t>
+  </si>
+  <si>
+    <t>DO-214AB(SMC)</t>
+  </si>
+  <si>
+    <t>https://www.onsemi.com/pub/Collateral/SS26-D.PDF</t>
+  </si>
+  <si>
+    <t>Shottky Power Rectifier</t>
+  </si>
+  <si>
+    <t>630mV</t>
+  </si>
+  <si>
+    <t>200V</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/ds15004.pdf</t>
+  </si>
+  <si>
+    <t>Diodes</t>
+  </si>
+  <si>
+    <t>Fast Recovery Rectifier</t>
+  </si>
+  <si>
+    <t>1,5A</t>
+  </si>
+  <si>
+    <t>SMB/SMA</t>
+  </si>
+  <si>
+    <t>EIC</t>
+  </si>
+  <si>
+    <t>http://www.eicsemi.com/datasheet/SS12-110.pdf</t>
+  </si>
+  <si>
+    <t>Schottky Barrier Rectifier</t>
+  </si>
+  <si>
+    <t>800mV</t>
+  </si>
+  <si>
+    <t>http://www.mccsemi.com/up_pdf/SS22-L-SS220-L(DO-214AC).pdf</t>
+  </si>
+  <si>
+    <t>Schottky Rectifier</t>
+  </si>
+  <si>
+    <t>900mV</t>
+  </si>
+  <si>
+    <t>850mV</t>
+  </si>
+  <si>
+    <t>TSC</t>
+  </si>
+  <si>
+    <t>http://pdf.datasheetcatalog.com/datasheet2/7/0ytq89fjftp1c3a5uwuy2ek3ulcy.pdf</t>
+  </si>
+  <si>
+    <t>LGE</t>
+  </si>
+  <si>
+    <t>https://www.laro.com.pl/pdf/ss56.pdf</t>
+  </si>
+  <si>
+    <t>https://www.vishay.com/docs/88746/ss12.pdf</t>
+  </si>
+  <si>
+    <t>https://www.onsemi.com/pub/Collateral/ES1J-D.PDF</t>
+  </si>
+  <si>
+    <t>600V</t>
+  </si>
+  <si>
+    <t>https://www.vishay.com/docs/88586/es1.pdf</t>
+  </si>
+  <si>
+    <t>920mV</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ds/2/258/ES1A-ES1M(HSMA)-479844.pdf</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1288,12 +1447,21 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2251,7 +2419,7 @@
       <c r="G32" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H32" s="14" t="s">
+      <c r="H32" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I32" s="2">
@@ -2268,7 +2436,7 @@
       <c r="G33" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="H33" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I33" s="2">
@@ -2285,7 +2453,7 @@
       <c r="G34" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="H34" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I34" s="2">
@@ -2302,7 +2470,7 @@
       <c r="G35" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H35" s="14" t="s">
+      <c r="H35" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I35" s="2">
@@ -2319,7 +2487,7 @@
       <c r="G36" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H36" s="14" t="s">
+      <c r="H36" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I36" s="2">
@@ -2336,7 +2504,7 @@
       <c r="G37" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="H37" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I37" s="2">
@@ -2353,7 +2521,7 @@
       <c r="G38" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H38" s="14" t="s">
+      <c r="H38" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I38" s="2">
@@ -2370,7 +2538,7 @@
       <c r="G39" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H39" s="14" t="s">
+      <c r="H39" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I39" s="2">
@@ -2387,7 +2555,7 @@
       <c r="G40" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H40" s="14" t="s">
+      <c r="H40" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I40" s="2">
@@ -2404,7 +2572,7 @@
       <c r="G41" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H41" s="14" t="s">
+      <c r="H41" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I41" s="2">
@@ -2421,7 +2589,7 @@
       <c r="G42" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H42" s="14" t="s">
+      <c r="H42" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I42" s="2">
@@ -2438,7 +2606,7 @@
       <c r="G43" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H43" s="14" t="s">
+      <c r="H43" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I43" s="2">
@@ -2455,7 +2623,7 @@
       <c r="G44" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H44" s="14" t="s">
+      <c r="H44" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I44" s="2">
@@ -2472,7 +2640,7 @@
       <c r="G45" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H45" s="14" t="s">
+      <c r="H45" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I45" s="2">
@@ -2489,7 +2657,7 @@
       <c r="G46" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H46" s="14" t="s">
+      <c r="H46" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I46" s="2">
@@ -2506,7 +2674,7 @@
       <c r="G47" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H47" s="14" t="s">
+      <c r="H47" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I47" s="2">
@@ -2523,7 +2691,7 @@
       <c r="G48" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H48" s="14" t="s">
+      <c r="H48" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I48" s="2">
@@ -2540,7 +2708,7 @@
       <c r="G49" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H49" s="14" t="s">
+      <c r="H49" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I49" s="2">
@@ -2557,7 +2725,7 @@
       <c r="G50" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H50" s="14" t="s">
+      <c r="H50" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I50" s="2">
@@ -2574,7 +2742,7 @@
       <c r="G51" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H51" s="14" t="s">
+      <c r="H51" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I51" s="2">
@@ -2591,7 +2759,7 @@
       <c r="G52" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H52" s="14" t="s">
+      <c r="H52" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I52" s="2">
@@ -2608,7 +2776,7 @@
       <c r="G53" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H53" s="14" t="s">
+      <c r="H53" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I53" s="2">
@@ -2625,7 +2793,7 @@
       <c r="G54" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H54" s="14" t="s">
+      <c r="H54" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I54" s="2">
@@ -2642,7 +2810,7 @@
       <c r="G55" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H55" s="14" t="s">
+      <c r="H55" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I55" s="2">
@@ -2659,7 +2827,7 @@
       <c r="G56" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H56" s="14" t="s">
+      <c r="H56" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I56" s="2">
@@ -2676,7 +2844,7 @@
       <c r="G57" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H57" s="14" t="s">
+      <c r="H57" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I57" s="2">
@@ -2693,7 +2861,7 @@
       <c r="G58" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H58" s="14" t="s">
+      <c r="H58" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I58" s="2">
@@ -2710,7 +2878,7 @@
       <c r="G59" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H59" s="14" t="s">
+      <c r="H59" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I59" s="2">
@@ -2727,7 +2895,7 @@
       <c r="G60" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H60" s="14" t="s">
+      <c r="H60" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I60" s="2">
@@ -2744,7 +2912,7 @@
       <c r="G61" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H61" s="14" t="s">
+      <c r="H61" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I61" s="2">
@@ -2761,7 +2929,7 @@
       <c r="G62" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H62" s="14" t="s">
+      <c r="H62" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I62" s="2">
@@ -2778,7 +2946,7 @@
       <c r="G63" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H63" s="14" t="s">
+      <c r="H63" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I63" s="2">
@@ -2795,7 +2963,7 @@
       <c r="G64" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H64" s="14" t="s">
+      <c r="H64" s="13" t="s">
         <v>310</v>
       </c>
       <c r="I64" s="2">
@@ -4044,12 +4212,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O20" sqref="O20"/>
+      <selection pane="bottomLeft" activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="11.42578125" style="1"/>
+    <col min="11" max="11" width="17.140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4091,756 +4263,1275 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="A2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="J2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="A3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="J3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="J3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="A4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="J4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="J4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="A5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="J5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="A6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="J6" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="A7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="J7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="A8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="J8" t="s">
-        <v>86</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="A9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="J9" t="s">
-        <v>86</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="A10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="J10" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="J11" t="s">
-        <v>86</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="A12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="J12" t="s">
-        <v>86</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="A13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="J13" t="s">
-        <v>86</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="A14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="J14" t="s">
-        <v>86</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="A15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="J15" t="s">
-        <v>86</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="J15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="B16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="J16" t="s">
-        <v>86</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="J16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="15" t="s">
+      <c r="B17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J17" t="s">
-        <v>86</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="J17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="B18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J18" t="s">
-        <v>86</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="J18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="B19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J19" t="s">
-        <v>86</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="J19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="10" t="s">
+      <c r="B20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J20" t="s">
-        <v>86</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="J20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>332</v>
       </c>
+      <c r="B21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L21" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>333</v>
       </c>
+      <c r="B22" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="L22" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>334</v>
       </c>
+      <c r="B23" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L23" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>335</v>
       </c>
+      <c r="B24" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L24" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>336</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="L25" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>337</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="L26" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>338</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="L27" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>339</v>
       </c>
+      <c r="B28" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L28" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>340</v>
       </c>
+      <c r="B29" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L29" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>341</v>
       </c>
+      <c r="B30" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L30" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>342</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L31" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B32" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="L32" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B33" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="L33" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B34" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L34" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B35" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L35" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B36" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L36" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>348</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L37" s="1">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4865,6 +5556,44 @@
     <hyperlink ref="D18" r:id="rId18"/>
     <hyperlink ref="D19" r:id="rId19"/>
     <hyperlink ref="D20" r:id="rId20"/>
+    <hyperlink ref="C22" r:id="rId21"/>
+    <hyperlink ref="D21" r:id="rId22"/>
+    <hyperlink ref="D22" r:id="rId23"/>
+    <hyperlink ref="D23" r:id="rId24"/>
+    <hyperlink ref="D24" r:id="rId25"/>
+    <hyperlink ref="D25" r:id="rId26"/>
+    <hyperlink ref="D27" r:id="rId27"/>
+    <hyperlink ref="D28" r:id="rId28"/>
+    <hyperlink ref="D29" r:id="rId29"/>
+    <hyperlink ref="D30" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="C21" r:id="rId37"/>
+    <hyperlink ref="C18" r:id="rId38"/>
+    <hyperlink ref="C19" r:id="rId39"/>
+    <hyperlink ref="C20" r:id="rId40"/>
+    <hyperlink ref="C16" r:id="rId41"/>
+    <hyperlink ref="C23" r:id="rId42"/>
+    <hyperlink ref="C24" r:id="rId43"/>
+    <hyperlink ref="C25" r:id="rId44"/>
+    <hyperlink ref="D26" r:id="rId45"/>
+    <hyperlink ref="C26" r:id="rId46"/>
+    <hyperlink ref="C27" r:id="rId47"/>
+    <hyperlink ref="C28" r:id="rId48"/>
+    <hyperlink ref="C29" r:id="rId49"/>
+    <hyperlink ref="C30" r:id="rId50"/>
+    <hyperlink ref="D31" r:id="rId51"/>
+    <hyperlink ref="C31" r:id="rId52"/>
+    <hyperlink ref="C32" r:id="rId53"/>
+    <hyperlink ref="C33" r:id="rId54"/>
+    <hyperlink ref="C34" r:id="rId55"/>
+    <hyperlink ref="C35" r:id="rId56"/>
+    <hyperlink ref="C36" r:id="rId57"/>
+    <hyperlink ref="C37" r:id="rId58"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Material/Inventory.xlsx
+++ b/Material/Inventory.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Resistor" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="430">
   <si>
     <t xml:space="preserve">Part number</t>
   </si>
@@ -1015,6 +1015,21 @@
   </si>
   <si>
     <t xml:space="preserve">TQFP-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRV8833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ti.com/lit/ds/symlink/drv8833.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.aliexpress.com/item/10pcs-lot-DRV8833PWPR-DRV8833PWP-DRV8833-TSSOP16-In-Stock/32884011827.html?spm=a2g0s.9042311.0.0.61034c4dLhLNqE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dual H-Bridge Motor Driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSSOP16 </t>
   </si>
   <si>
     <t xml:space="preserve">Core Set</t>
@@ -1389,6 +1404,45 @@
 Item weight: 3g
 Package size: 9 * 3 * 1cm
 Package weight: 8g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.aliexpress.com/item/2-54mm-Double-Row-Female-2-40P-Breakaway-PCB-Board-Pin-Header-socket-Connector-Pinheader-2/32889916876.html?spm=a2g0s.9042311.0.0.4f4e4c4dag1dyq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x4P header female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x5P header female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.aliexpress.com/item/10PCS-2-54mm-2-3-4-5-6-7-8-10-12-16-20-40-Pin/32909806145.html?spm=a2g0s.9042311.0.0.4f4e4c4dag1dyq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5P header female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10P header female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.aliexpress.com/item/5pcs-3V-Dc-2-Phase-4-Wire-Dia-8mm-Dc-Stepper-Motor-Micro-Stepping-Motor-for/32833508453.html?spm=a2g0s.9042311.0.0.61034c4dLhLNqE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3V 4Wire stepper motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Wire 2 Phase Micro stepper motor for Digital Camera or small household electrical appliances
+motor diameter: 8MM; Height: 9.2 MM;Output shaft: 0.8MM;The output shaft length: 4MM; 12teeth 0.2mod
+Rate Vlotage: 3V DC;
+Drive mode: 2 phase 4 wire micro stepper  motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.aliexpress.com/item/5pcs-limit-switch-end-stop-silver-dot-belt-back-small-three-pin-micro-switch-KW4-3Z/32883830954.html?spm=a2g0s.9042311.0.0.61034c4dLhLNqE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limit switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limit switch end stop silver dot belt back small three pin micro switch KW4-3Z-3 3D printer accessories</t>
   </si>
 </sst>
 </file>
@@ -1556,7 +1610,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G32" activeCellId="1" sqref="K40 G32"/>
+      <selection pane="bottomLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2776,7 +2830,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G44" activeCellId="1" sqref="K40 G44"/>
+      <selection pane="bottomLeft" activeCell="G44" activeCellId="0" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3821,7 +3875,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="K40 A1"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4023,10 +4077,10 @@
   </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K40" activeCellId="0" sqref="K40"/>
+      <selection pane="bottomLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5528,7 +5582,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
-      <selection pane="bottomLeft" activeCell="F57" activeCellId="1" sqref="K40 F57"/>
+      <selection pane="bottomLeft" activeCell="F57" activeCellId="0" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6024,7 +6078,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="1" sqref="K40 J7"/>
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6261,7 +6315,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D2" activeCellId="1" sqref="K40 D2"/>
+      <selection pane="bottomLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6335,10 +6389,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="K40 A1"/>
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6424,11 +6478,39 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://www.aliexpress.com/item/5pcs-lot-Original-CH340G-IC-R3-Board-Free-USB-Cable-Serial-Chip-SOP-16-CH340-In/32893333183.html?spm=a2g0s.9042311.0.0.27424c4d5SoKfv"/>
     <hyperlink ref="C3" r:id="rId2" display="https://www.google.com/search?q=atmega16+au+datasheet&amp;rlz=1C1GCEA_enDE817DE817&amp;oq=atmega16+au+data&amp;aqs=chrome.1.69i57j0.4952j0j4&amp;sourceid=chrome&amp;ie=UTF-8"/>
     <hyperlink ref="D3" r:id="rId3" display="https://www.aliexpress.com/item/Free-Shipping-10PCS-lot-ATMEGA16-ATMEGA16A-ATMEGA16A-AU-TQFP-44/32491882737.html?spm=a2g0s.9042311.0.0.27424c4dpS56GJ"/>
+    <hyperlink ref="C4" r:id="rId4" display="http://www.ti.com/lit/ds/symlink/drv8833.pdf"/>
+    <hyperlink ref="D4" r:id="rId5" display="https://www.aliexpress.com/item/10pcs-lot-DRV8833PWPR-DRV8833PWP-DRV8833-TSSOP16-In-Stock/32884011827.html?spm=a2g0s.9042311.0.0.61034c4dLhLNqE"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
@@ -6445,12 +6527,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F23" activeCellId="1" sqref="K40 F23"/>
+      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6490,19 +6572,19 @@
         <v>94</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6516,10 +6598,10 @@
         <v>94</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>1</v>
@@ -6530,19 +6612,19 @@
         <v>94</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>2</v>
@@ -6553,19 +6635,19 @@
         <v>94</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>2</v>
@@ -6573,22 +6655,22 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>5</v>
@@ -6596,22 +6678,22 @@
     </row>
     <row r="7" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>4</v>
@@ -6622,19 +6704,19 @@
         <v>94</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>3</v>
@@ -6645,19 +6727,19 @@
         <v>94</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>2</v>
@@ -6665,7 +6747,7 @@
     </row>
     <row r="10" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>94</v>
@@ -6674,13 +6756,13 @@
         <v>94</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>1</v>
@@ -6688,22 +6770,22 @@
     </row>
     <row r="11" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>1</v>
@@ -6711,7 +6793,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>94</v>
@@ -6720,13 +6802,13 @@
         <v>94</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>20</v>
@@ -6737,19 +6819,19 @@
         <v>94</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>3</v>
@@ -6766,13 +6848,13 @@
         <v>94</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>10</v>
@@ -6783,16 +6865,16 @@
         <v>94</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>6</v>
@@ -6803,19 +6885,19 @@
         <v>94</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>4</v>
@@ -6823,19 +6905,19 @@
     </row>
     <row r="17" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>100</v>
@@ -6843,22 +6925,22 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>48</v>
@@ -6869,19 +6951,19 @@
         <v>94</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>8</v>
@@ -6898,13 +6980,13 @@
         <v>94</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>2</v>
@@ -6912,22 +6994,22 @@
     </row>
     <row r="21" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>1</v>
@@ -6935,7 +7017,7 @@
     </row>
     <row r="22" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>94</v>
@@ -6944,16 +7026,142 @@
         <v>94</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -6981,6 +7189,12 @@
     <hyperlink ref="C21" r:id="rId21" display="https://www.voti.nl/docs/OV7670.pdf"/>
     <hyperlink ref="D21" r:id="rId22" display="https://www.aliexpress.com/item/Guaranteed-New-1Pcs-Blue-OV7670-300KP-VGA-Camera-Module-for-Arduino-Free-Shipping/2026642228.html?spm=a2g0s.9042311.0.0.27424c4dmVgi0A"/>
     <hyperlink ref="D22" r:id="rId23" display="https://www.aliexpress.com/item/HC-06-Bluetooth-serial-pass-through-module-wireless-serial-communication-from-machine-Wireless-HC06-for-arduino/1626637671.html?spm=a2g0s.9042311.0.0.27424c4dfrOhrP"/>
+    <hyperlink ref="D23" r:id="rId24" display="https://www.aliexpress.com/item/2-54mm-Double-Row-Female-2-40P-Breakaway-PCB-Board-Pin-Header-socket-Connector-Pinheader-2/32889916876.html?spm=a2g0s.9042311.0.0.4f4e4c4dag1dyq"/>
+    <hyperlink ref="D24" r:id="rId25" display="https://www.aliexpress.com/item/2-54mm-Double-Row-Female-2-40P-Breakaway-PCB-Board-Pin-Header-socket-Connector-Pinheader-2/32889916876.html?spm=a2g0s.9042311.0.0.4f4e4c4dag1dyq"/>
+    <hyperlink ref="D25" r:id="rId26" display="https://www.aliexpress.com/item/10PCS-2-54mm-2-3-4-5-6-7-8-10-12-16-20-40-Pin/32909806145.html?spm=a2g0s.9042311.0.0.4f4e4c4dag1dyq"/>
+    <hyperlink ref="D26" r:id="rId27" display="https://www.aliexpress.com/item/10PCS-2-54mm-2-3-4-5-6-7-8-10-12-16-20-40-Pin/32909806145.html?spm=a2g0s.9042311.0.0.4f4e4c4dag1dyq"/>
+    <hyperlink ref="D27" r:id="rId28" display="https://www.aliexpress.com/item/5pcs-3V-Dc-2-Phase-4-Wire-Dia-8mm-Dc-Stepper-Motor-Micro-Stepping-Motor-for/32833508453.html?spm=a2g0s.9042311.0.0.61034c4dLhLNqE"/>
+    <hyperlink ref="D28" r:id="rId29" display="https://www.aliexpress.com/item/5pcs-limit-switch-end-stop-silver-dot-belt-back-small-three-pin-micro-switch-KW4-3Z/32883830954.html?spm=a2g0s.9042311.0.0.61034c4dLhLNqE"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Material/Inventory.xlsx
+++ b/Material/Inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vtolenti89\Documents\05_Electronics\Kicad\Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367B783A-997C-45E3-842B-533F785BD3B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F29AC03-DDEE-4238-B5C6-C039D15D426E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistor" sheetId="1" r:id="rId1"/>
@@ -1522,7 +1522,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1556,8 +1556,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4319,9 +4317,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMK40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5650,7 +5648,7 @@
       <c r="B38" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" t="s">
         <v>221</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -5682,7 +5680,7 @@
       <c r="B39" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" t="s">
         <v>221</v>
       </c>
       <c r="E39" s="3" t="s">
@@ -5714,7 +5712,7 @@
       <c r="B40" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" t="s">
         <v>221</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -6791,7 +6789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMK29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
     </sheetView>
@@ -6947,7 +6945,7 @@
       <c r="C7" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>356</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -7309,7 +7307,7 @@
       <c r="C23" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" t="s">
         <v>418</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -7329,7 +7327,7 @@
       <c r="C24" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" t="s">
         <v>418</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -7349,7 +7347,7 @@
       <c r="C25" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" t="s">
         <v>421</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -7369,7 +7367,7 @@
       <c r="C26" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" t="s">
         <v>421</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -7389,7 +7387,7 @@
       <c r="C27" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" t="s">
         <v>424</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -7412,7 +7410,7 @@
       <c r="C28" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" t="s">
         <v>427</v>
       </c>
       <c r="E28" s="1" t="s">

--- a/Material/Inventory.xlsx
+++ b/Material/Inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vtolenti89\Documents\05_Electronics\Kicad\Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F29AC03-DDEE-4238-B5C6-C039D15D426E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C48CFA-582B-4921-ACB6-6B5C94742213}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="12825" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistor" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="IC" sheetId="8" r:id="rId8"/>
     <sheet name="Others" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="445">
   <si>
     <t>Part number</t>
   </si>
@@ -1478,6 +1478,21 @@
   </si>
   <si>
     <t>https://www.aliexpress.com/item/100pcs-6-6-5mm-Light-touch-switch-DIP4-Touch-button-Touch-switch-6-6-5-keys/32866696732.html?spm=2114.search0104.3.1.5d9f4eb4dAjsi7&amp;ws_ab_test=searchweb0_0,searchweb201602_9_10065_10068_10547_319_317_10548_10696_10084_453_10083_454_10618_10304_10307_10820_10821_537_10302_536_10843_10059_10884_10887_321_322_10103,searchweb201603_51,ppcSwitch_0&amp;algo_expid=fbdfc942-55b2-4ec6-81b0-5b09b689e17d-0&amp;algo_pvid=fbdfc942-55b2-4ec6-81b0-5b09b689e17d&amp;transAbTest=ae803_3</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Rt</t>
+  </si>
+  <si>
+    <t>3.3/3.3</t>
+  </si>
+  <si>
+    <t>5.1k</t>
   </si>
 </sst>
 </file>
@@ -1874,8 +1889,8 @@
   <dimension ref="A1:AMK64"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2530,7 +2545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="s">
         <v>32</v>
       </c>
@@ -2547,7 +2562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D34" s="1" t="s">
         <v>33</v>
       </c>
@@ -2564,7 +2579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D35" s="1">
         <v>10</v>
       </c>
@@ -2581,7 +2596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D36" s="1">
         <v>22</v>
       </c>
@@ -2598,7 +2613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D37" s="1">
         <v>47</v>
       </c>
@@ -2615,7 +2630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D38" s="1">
         <v>62</v>
       </c>
@@ -2632,7 +2647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D39" s="1">
         <v>8</v>
       </c>
@@ -2649,7 +2664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D40" s="1">
         <v>100</v>
       </c>
@@ -2666,7 +2681,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D41" s="1">
         <v>150</v>
       </c>
@@ -2683,7 +2698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D42" s="1">
         <v>330</v>
       </c>
@@ -2700,7 +2715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D43" s="1">
         <v>470</v>
       </c>
@@ -2717,7 +2732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D44" s="1">
         <v>680</v>
       </c>
@@ -2734,7 +2749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D45" s="1" t="s">
         <v>12</v>
       </c>
@@ -2750,8 +2765,20 @@
       <c r="I45" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="K45" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="L45" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="46" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D46" s="1" t="s">
         <v>34</v>
       </c>
@@ -2767,8 +2794,20 @@
       <c r="I46" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="K46" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="L46" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="47" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D47" s="1" t="s">
         <v>15</v>
       </c>
@@ -2784,8 +2823,15 @@
       <c r="I47" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="K47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="L47" s="1">
+        <f>L45*L46/(L45+L46)</f>
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="48" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D48" s="1" t="s">
         <v>16</v>
       </c>
@@ -3084,9 +3130,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4317,9 +4363,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMK40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Material/Inventory.xlsx
+++ b/Material/Inventory.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vtolenti89\Documents\05_Electronics\Kicad\Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C48CFA-582B-4921-ACB6-6B5C94742213}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12F3894-DDEF-4273-8B3B-BC0B189D4120}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="12825" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistor" sheetId="1" r:id="rId1"/>
     <sheet name="Capacitor" sheetId="2" r:id="rId2"/>
     <sheet name="LED" sheetId="3" r:id="rId3"/>
-    <sheet name="Diode" sheetId="4" r:id="rId4"/>
-    <sheet name="Transistor" sheetId="5" r:id="rId5"/>
+    <sheet name="Transistor" sheetId="5" r:id="rId4"/>
+    <sheet name="Diode" sheetId="4" r:id="rId5"/>
     <sheet name="Voltage_Regulator" sheetId="6" r:id="rId6"/>
     <sheet name="Crystal" sheetId="7" r:id="rId7"/>
     <sheet name="IC" sheetId="8" r:id="rId8"/>
@@ -1499,7 +1499,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1511,6 +1511,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1537,7 +1544,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1571,6 +1578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1889,8 +1897,8 @@
   <dimension ref="A1:AMK64"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2896,7 +2904,7 @@
         <v>31</v>
       </c>
       <c r="I51" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.25">
@@ -2930,7 +2938,7 @@
         <v>31</v>
       </c>
       <c r="I53" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.25">
@@ -3130,9 +3138,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
+      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4169,7 +4177,7 @@
   <dimension ref="A1:AMK6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4234,7 +4242,7 @@
         <v>1206</v>
       </c>
       <c r="I2" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4263,7 +4271,7 @@
         <v>1206</v>
       </c>
       <c r="I3" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4360,6 +4368,558 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A52" sqref="A52"/>
+      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="6" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="1025" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>232</v>
+      </c>
+      <c r="B53" t="s">
+        <v>195</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E53" t="s">
+        <v>235</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" t="s">
+        <v>236</v>
+      </c>
+      <c r="I53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>237</v>
+      </c>
+      <c r="B54" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E54" t="s">
+        <v>239</v>
+      </c>
+      <c r="G54" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" t="s">
+        <v>236</v>
+      </c>
+      <c r="I54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>240</v>
+      </c>
+      <c r="B55" t="s">
+        <v>241</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E55" t="s">
+        <v>239</v>
+      </c>
+      <c r="F55" t="s">
+        <v>243</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" t="s">
+        <v>236</v>
+      </c>
+      <c r="I55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>244</v>
+      </c>
+      <c r="B56" t="s">
+        <v>245</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E56" t="s">
+        <v>239</v>
+      </c>
+      <c r="F56" t="s">
+        <v>247</v>
+      </c>
+      <c r="G56" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" t="s">
+        <v>236</v>
+      </c>
+      <c r="I56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>248</v>
+      </c>
+      <c r="B57" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E57" t="s">
+        <v>235</v>
+      </c>
+      <c r="F57" t="s">
+        <v>251</v>
+      </c>
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" t="s">
+        <v>236</v>
+      </c>
+      <c r="I57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>252</v>
+      </c>
+      <c r="B58" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E58" t="s">
+        <v>239</v>
+      </c>
+      <c r="F58" t="s">
+        <v>254</v>
+      </c>
+      <c r="G58" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" t="s">
+        <v>236</v>
+      </c>
+      <c r="I58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>255</v>
+      </c>
+      <c r="B59" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E59" t="s">
+        <v>235</v>
+      </c>
+      <c r="F59" t="s">
+        <v>254</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" t="s">
+        <v>236</v>
+      </c>
+      <c r="I59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>257</v>
+      </c>
+      <c r="B60" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E60" t="s">
+        <v>235</v>
+      </c>
+      <c r="F60" t="s">
+        <v>259</v>
+      </c>
+      <c r="G60" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" t="s">
+        <v>236</v>
+      </c>
+      <c r="I60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>260</v>
+      </c>
+      <c r="B61" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E61" t="s">
+        <v>239</v>
+      </c>
+      <c r="F61" t="s">
+        <v>259</v>
+      </c>
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" t="s">
+        <v>236</v>
+      </c>
+      <c r="I61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>262</v>
+      </c>
+      <c r="B62" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E62" t="s">
+        <v>239</v>
+      </c>
+      <c r="F62" t="s">
+        <v>264</v>
+      </c>
+      <c r="G62" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" t="s">
+        <v>236</v>
+      </c>
+      <c r="I62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>265</v>
+      </c>
+      <c r="B63" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E63" t="s">
+        <v>235</v>
+      </c>
+      <c r="F63" t="s">
+        <v>264</v>
+      </c>
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" t="s">
+        <v>236</v>
+      </c>
+      <c r="I63">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>267</v>
+      </c>
+      <c r="B64" t="s">
+        <v>268</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E64" t="s">
+        <v>235</v>
+      </c>
+      <c r="F64" t="s">
+        <v>270</v>
+      </c>
+      <c r="G64" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" t="s">
+        <v>236</v>
+      </c>
+      <c r="I64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>271</v>
+      </c>
+      <c r="B65" t="s">
+        <v>272</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E65" t="s">
+        <v>239</v>
+      </c>
+      <c r="F65" t="s">
+        <v>274</v>
+      </c>
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" t="s">
+        <v>236</v>
+      </c>
+      <c r="I65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>13001</v>
+      </c>
+      <c r="B66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E66" t="s">
+        <v>239</v>
+      </c>
+      <c r="F66" t="s">
+        <v>276</v>
+      </c>
+      <c r="G66" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" t="s">
+        <v>236</v>
+      </c>
+      <c r="I66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>430</v>
+      </c>
+      <c r="B67" t="s">
+        <v>431</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="E67" t="s">
+        <v>235</v>
+      </c>
+      <c r="F67" t="s">
+        <v>254</v>
+      </c>
+      <c r="G67" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" t="s">
+        <v>289</v>
+      </c>
+      <c r="I67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>432</v>
+      </c>
+      <c r="B68" t="s">
+        <v>431</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="E68" t="s">
+        <v>239</v>
+      </c>
+      <c r="F68" t="s">
+        <v>254</v>
+      </c>
+      <c r="G68" t="s">
+        <v>30</v>
+      </c>
+      <c r="H68" t="s">
+        <v>289</v>
+      </c>
+      <c r="I68">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C53" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="D53" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="C54" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="D54" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="C55" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="D55" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="C56" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="D56" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="C57" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="D57" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="C58" r:id="rId11" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="D58" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="C59" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
+    <hyperlink ref="D59" r:id="rId14" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
+    <hyperlink ref="C60" r:id="rId15" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
+    <hyperlink ref="D60" r:id="rId16" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
+    <hyperlink ref="C61" r:id="rId17" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
+    <hyperlink ref="D61" r:id="rId18" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
+    <hyperlink ref="C62" r:id="rId19" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
+    <hyperlink ref="D62" r:id="rId20" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
+    <hyperlink ref="C63" r:id="rId21" xr:uid="{00000000-0004-0000-0400-000014000000}"/>
+    <hyperlink ref="D63" r:id="rId22" xr:uid="{00000000-0004-0000-0400-000015000000}"/>
+    <hyperlink ref="C64" r:id="rId23" xr:uid="{00000000-0004-0000-0400-000016000000}"/>
+    <hyperlink ref="D64" r:id="rId24" xr:uid="{00000000-0004-0000-0400-000017000000}"/>
+    <hyperlink ref="C65" r:id="rId25" xr:uid="{00000000-0004-0000-0400-000018000000}"/>
+    <hyperlink ref="D65" r:id="rId26" xr:uid="{00000000-0004-0000-0400-000019000000}"/>
+    <hyperlink ref="C66" r:id="rId27" xr:uid="{00000000-0004-0000-0400-00001A000000}"/>
+    <hyperlink ref="D66" r:id="rId28" xr:uid="{00000000-0004-0000-0400-00001B000000}"/>
+    <hyperlink ref="D68" r:id="rId29" xr:uid="{631711CD-6EC1-40E5-A6EA-78B440F7A08F}"/>
+    <hyperlink ref="D67" r:id="rId30" xr:uid="{43AD2E89-54F8-4CA6-BCA8-D106D3AB64EF}"/>
+    <hyperlink ref="C67" r:id="rId31" xr:uid="{1E842B65-9A4C-41C9-9C6F-DB12418191B3}"/>
+    <hyperlink ref="C68" r:id="rId32" xr:uid="{9C7BDFDE-88D1-4974-AC4A-69730F6164B1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMK40"/>
   <sheetViews>
@@ -5852,564 +6412,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I68"/>
-  <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A52" sqref="A52"/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="1025" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>232</v>
-      </c>
-      <c r="B53" t="s">
-        <v>195</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E53" t="s">
-        <v>235</v>
-      </c>
-      <c r="G53" t="s">
-        <v>10</v>
-      </c>
-      <c r="H53" t="s">
-        <v>236</v>
-      </c>
-      <c r="I53">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>237</v>
-      </c>
-      <c r="B54" t="s">
-        <v>195</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E54" t="s">
-        <v>239</v>
-      </c>
-      <c r="G54" t="s">
-        <v>10</v>
-      </c>
-      <c r="H54" t="s">
-        <v>236</v>
-      </c>
-      <c r="I54">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>240</v>
-      </c>
-      <c r="B55" t="s">
-        <v>241</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E55" t="s">
-        <v>239</v>
-      </c>
-      <c r="F55" t="s">
-        <v>243</v>
-      </c>
-      <c r="G55" t="s">
-        <v>10</v>
-      </c>
-      <c r="H55" t="s">
-        <v>236</v>
-      </c>
-      <c r="I55">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>244</v>
-      </c>
-      <c r="B56" t="s">
-        <v>245</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E56" t="s">
-        <v>239</v>
-      </c>
-      <c r="F56" t="s">
-        <v>247</v>
-      </c>
-      <c r="G56" t="s">
-        <v>10</v>
-      </c>
-      <c r="H56" t="s">
-        <v>236</v>
-      </c>
-      <c r="I56">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>248</v>
-      </c>
-      <c r="B57" t="s">
-        <v>249</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E57" t="s">
-        <v>235</v>
-      </c>
-      <c r="F57" t="s">
-        <v>251</v>
-      </c>
-      <c r="G57" t="s">
-        <v>10</v>
-      </c>
-      <c r="H57" t="s">
-        <v>236</v>
-      </c>
-      <c r="I57">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>252</v>
-      </c>
-      <c r="B58" t="s">
-        <v>159</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E58" t="s">
-        <v>239</v>
-      </c>
-      <c r="F58" t="s">
-        <v>254</v>
-      </c>
-      <c r="G58" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58" t="s">
-        <v>236</v>
-      </c>
-      <c r="I58">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>255</v>
-      </c>
-      <c r="B59" t="s">
-        <v>159</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E59" t="s">
-        <v>235</v>
-      </c>
-      <c r="F59" t="s">
-        <v>254</v>
-      </c>
-      <c r="G59" t="s">
-        <v>10</v>
-      </c>
-      <c r="H59" t="s">
-        <v>236</v>
-      </c>
-      <c r="I59">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>257</v>
-      </c>
-      <c r="B60" t="s">
-        <v>159</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E60" t="s">
-        <v>235</v>
-      </c>
-      <c r="F60" t="s">
-        <v>259</v>
-      </c>
-      <c r="G60" t="s">
-        <v>10</v>
-      </c>
-      <c r="H60" t="s">
-        <v>236</v>
-      </c>
-      <c r="I60">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>260</v>
-      </c>
-      <c r="B61" t="s">
-        <v>159</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E61" t="s">
-        <v>239</v>
-      </c>
-      <c r="F61" t="s">
-        <v>259</v>
-      </c>
-      <c r="G61" t="s">
-        <v>10</v>
-      </c>
-      <c r="H61" t="s">
-        <v>236</v>
-      </c>
-      <c r="I61">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>262</v>
-      </c>
-      <c r="B62" t="s">
-        <v>159</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E62" t="s">
-        <v>239</v>
-      </c>
-      <c r="F62" t="s">
-        <v>264</v>
-      </c>
-      <c r="G62" t="s">
-        <v>10</v>
-      </c>
-      <c r="H62" t="s">
-        <v>236</v>
-      </c>
-      <c r="I62">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>265</v>
-      </c>
-      <c r="B63" t="s">
-        <v>159</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E63" t="s">
-        <v>235</v>
-      </c>
-      <c r="F63" t="s">
-        <v>264</v>
-      </c>
-      <c r="G63" t="s">
-        <v>10</v>
-      </c>
-      <c r="H63" t="s">
-        <v>236</v>
-      </c>
-      <c r="I63">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>267</v>
-      </c>
-      <c r="B64" t="s">
-        <v>268</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E64" t="s">
-        <v>235</v>
-      </c>
-      <c r="F64" t="s">
-        <v>270</v>
-      </c>
-      <c r="G64" t="s">
-        <v>10</v>
-      </c>
-      <c r="H64" t="s">
-        <v>236</v>
-      </c>
-      <c r="I64">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>271</v>
-      </c>
-      <c r="B65" t="s">
-        <v>272</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E65" t="s">
-        <v>239</v>
-      </c>
-      <c r="F65" t="s">
-        <v>274</v>
-      </c>
-      <c r="G65" t="s">
-        <v>10</v>
-      </c>
-      <c r="H65" t="s">
-        <v>236</v>
-      </c>
-      <c r="I65">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>13001</v>
-      </c>
-      <c r="B66" t="s">
-        <v>272</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E66" t="s">
-        <v>239</v>
-      </c>
-      <c r="F66" t="s">
-        <v>276</v>
-      </c>
-      <c r="G66" t="s">
-        <v>10</v>
-      </c>
-      <c r="H66" t="s">
-        <v>236</v>
-      </c>
-      <c r="I66">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>430</v>
-      </c>
-      <c r="B67" t="s">
-        <v>431</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="E67" t="s">
-        <v>235</v>
-      </c>
-      <c r="F67" t="s">
-        <v>254</v>
-      </c>
-      <c r="G67" t="s">
-        <v>30</v>
-      </c>
-      <c r="H67" t="s">
-        <v>289</v>
-      </c>
-      <c r="I67">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>432</v>
-      </c>
-      <c r="B68" t="s">
-        <v>431</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="E68" t="s">
-        <v>239</v>
-      </c>
-      <c r="F68" t="s">
-        <v>254</v>
-      </c>
-      <c r="G68" t="s">
-        <v>30</v>
-      </c>
-      <c r="H68" t="s">
-        <v>289</v>
-      </c>
-      <c r="I68">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C53" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="D53" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="C54" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="D54" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="C55" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="D55" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="C56" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
-    <hyperlink ref="D56" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
-    <hyperlink ref="C57" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
-    <hyperlink ref="D57" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
-    <hyperlink ref="C58" r:id="rId11" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
-    <hyperlink ref="D58" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
-    <hyperlink ref="C59" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
-    <hyperlink ref="D59" r:id="rId14" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
-    <hyperlink ref="C60" r:id="rId15" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
-    <hyperlink ref="D60" r:id="rId16" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
-    <hyperlink ref="C61" r:id="rId17" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
-    <hyperlink ref="D61" r:id="rId18" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
-    <hyperlink ref="C62" r:id="rId19" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
-    <hyperlink ref="D62" r:id="rId20" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
-    <hyperlink ref="C63" r:id="rId21" xr:uid="{00000000-0004-0000-0400-000014000000}"/>
-    <hyperlink ref="D63" r:id="rId22" xr:uid="{00000000-0004-0000-0400-000015000000}"/>
-    <hyperlink ref="C64" r:id="rId23" xr:uid="{00000000-0004-0000-0400-000016000000}"/>
-    <hyperlink ref="D64" r:id="rId24" xr:uid="{00000000-0004-0000-0400-000017000000}"/>
-    <hyperlink ref="C65" r:id="rId25" xr:uid="{00000000-0004-0000-0400-000018000000}"/>
-    <hyperlink ref="D65" r:id="rId26" xr:uid="{00000000-0004-0000-0400-000019000000}"/>
-    <hyperlink ref="C66" r:id="rId27" xr:uid="{00000000-0004-0000-0400-00001A000000}"/>
-    <hyperlink ref="D66" r:id="rId28" xr:uid="{00000000-0004-0000-0400-00001B000000}"/>
-    <hyperlink ref="D68" r:id="rId29" xr:uid="{631711CD-6EC1-40E5-A6EA-78B440F7A08F}"/>
-    <hyperlink ref="D67" r:id="rId30" xr:uid="{43AD2E89-54F8-4CA6-BCA8-D106D3AB64EF}"/>
-    <hyperlink ref="C67" r:id="rId31" xr:uid="{1E842B65-9A4C-41C9-9C6F-DB12418191B3}"/>
-    <hyperlink ref="C68" r:id="rId32" xr:uid="{9C7BDFDE-88D1-4974-AC4A-69730F6164B1}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6453,7 +6461,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="13" t="s">
         <v>281</v>
       </c>
       <c r="B2" t="s">
@@ -6476,7 +6484,7 @@
         <v>287</v>
       </c>
       <c r="I2" t="s">
-        <v>288</v>
+        <v>135</v>
       </c>
       <c r="J2" t="s">
         <v>289</v>
@@ -6549,7 +6557,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="13" t="s">
         <v>301</v>
       </c>
       <c r="B5" t="s">
@@ -6627,7 +6635,7 @@
     <hyperlink ref="D6" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/Material/Inventory.xlsx
+++ b/Material/Inventory.xlsx
@@ -8,23 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vtolenti89\Documents\05_Electronics\Kicad\Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12F3894-DDEF-4273-8B3B-BC0B189D4120}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24694D32-66DC-43F2-9975-DCE1D31DAD22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistor" sheetId="1" r:id="rId1"/>
     <sheet name="Capacitor" sheetId="2" r:id="rId2"/>
-    <sheet name="LED" sheetId="3" r:id="rId3"/>
-    <sheet name="Transistor" sheetId="5" r:id="rId4"/>
-    <sheet name="Diode" sheetId="4" r:id="rId5"/>
-    <sheet name="Voltage_Regulator" sheetId="6" r:id="rId6"/>
-    <sheet name="Crystal" sheetId="7" r:id="rId7"/>
-    <sheet name="IC" sheetId="8" r:id="rId8"/>
-    <sheet name="Others" sheetId="9" r:id="rId9"/>
+    <sheet name="inductor" sheetId="12" r:id="rId3"/>
+    <sheet name="LED" sheetId="3" r:id="rId4"/>
+    <sheet name="Transistor" sheetId="5" r:id="rId5"/>
+    <sheet name="Diode" sheetId="4" r:id="rId6"/>
+    <sheet name="Voltage_Regulator" sheetId="6" r:id="rId7"/>
+    <sheet name="Crystal" sheetId="7" r:id="rId8"/>
+    <sheet name="IC" sheetId="8" r:id="rId9"/>
+    <sheet name="Others" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -33,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="471">
   <si>
     <t>Part number</t>
   </si>
@@ -1493,6 +1499,84 @@
   </si>
   <si>
     <t>5.1k</t>
+  </si>
+  <si>
+    <t>TD1583</t>
+  </si>
+  <si>
+    <t>Techcode</t>
+  </si>
+  <si>
+    <t>http://www.rinkem.com/web/userfiles/productfile/upload/201010/TD1583.pdf</t>
+  </si>
+  <si>
+    <t>Buck regulator</t>
+  </si>
+  <si>
+    <t>3.6V</t>
+  </si>
+  <si>
+    <t>28V</t>
+  </si>
+  <si>
+    <t>1.222V to 26V</t>
+  </si>
+  <si>
+    <t>SOP-8</t>
+  </si>
+  <si>
+    <t>MT3608</t>
+  </si>
+  <si>
+    <t>Aerosemi</t>
+  </si>
+  <si>
+    <t>https://www.olimex.com/Products/Breadboarding/BB-PWR-3608/resources/MT3608.pdf</t>
+  </si>
+  <si>
+    <t>Boost regulator</t>
+  </si>
+  <si>
+    <t>2V</t>
+  </si>
+  <si>
+    <t>SOT23-6</t>
+  </si>
+  <si>
+    <t>LM358</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/lm358-n.pdf</t>
+  </si>
+  <si>
+    <t>OPAMP</t>
+  </si>
+  <si>
+    <t>SOP8</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32942971002.html?spm=a2g0s.9042311.0.0.25d44c4dhmO8fh</t>
+  </si>
+  <si>
+    <t>Block terminal</t>
+  </si>
+  <si>
+    <t>2 pin block terminal</t>
+  </si>
+  <si>
+    <t>3 pin block terminal</t>
+  </si>
+  <si>
+    <t>Inductance</t>
+  </si>
+  <si>
+    <t>CD54</t>
+  </si>
+  <si>
+    <t>15uH</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32955544004.html?spm=a2g0s.9042311.0.0.27424c4drz3x6i</t>
   </si>
 </sst>
 </file>
@@ -1544,7 +1628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1579,6 +1663,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3134,6 +3224,744 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AMK31"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" style="1" customWidth="1"/>
+    <col min="2" max="4" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="22" style="1" customWidth="1"/>
+    <col min="6" max="6" width="88.5703125" style="7" customWidth="1"/>
+    <col min="7" max="1025" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="255" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G12" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="G14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="G15" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="G17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G18" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G19" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" t="s">
+        <v>418</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G23" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>418</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="G24" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" t="s">
+        <v>421</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G25" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" t="s">
+        <v>421</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G26" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" t="s">
+        <v>424</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="G27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" t="s">
+        <v>427</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="G28" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D29" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="G29" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G30" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G31" s="1">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0800-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0800-000007000000}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0800-000008000000}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0800-000009000000}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0800-00000A000000}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0800-00000B000000}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0800-00000C000000}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0800-00000D000000}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0800-00000E000000}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0800-00000F000000}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0800-000010000000}"/>
+    <hyperlink ref="D18" r:id="rId18" xr:uid="{00000000-0004-0000-0800-000011000000}"/>
+    <hyperlink ref="D19" r:id="rId19" xr:uid="{00000000-0004-0000-0800-000012000000}"/>
+    <hyperlink ref="D20" r:id="rId20" xr:uid="{00000000-0004-0000-0800-000013000000}"/>
+    <hyperlink ref="C21" r:id="rId21" xr:uid="{00000000-0004-0000-0800-000014000000}"/>
+    <hyperlink ref="D21" r:id="rId22" xr:uid="{00000000-0004-0000-0800-000015000000}"/>
+    <hyperlink ref="D22" r:id="rId23" xr:uid="{00000000-0004-0000-0800-000016000000}"/>
+    <hyperlink ref="D23" r:id="rId24" xr:uid="{00000000-0004-0000-0800-000017000000}"/>
+    <hyperlink ref="D24" r:id="rId25" xr:uid="{00000000-0004-0000-0800-000018000000}"/>
+    <hyperlink ref="D25" r:id="rId26" xr:uid="{00000000-0004-0000-0800-000019000000}"/>
+    <hyperlink ref="D26" r:id="rId27" xr:uid="{00000000-0004-0000-0800-00001A000000}"/>
+    <hyperlink ref="D27" r:id="rId28" xr:uid="{00000000-0004-0000-0800-00001B000000}"/>
+    <hyperlink ref="D28" r:id="rId29" xr:uid="{00000000-0004-0000-0800-00001C000000}"/>
+    <hyperlink ref="D29" r:id="rId30" display="https://www.aliexpress.com/item/100pcs-6-6-5mm-Light-touch-switch-DIP4-Touch-button-Touch-switch-6-6-5-keys/32866696732.html?spm=2114.search0104.3.1.5d9f4eb4dAjsi7&amp;ws_ab_test=searchweb0_0,searchweb201602_9_10065_10068_10547_319_317_10548_10696_10084_453_10083_454_10618_10304_10307_10820_10821_537_10302_536_10843_10059_10884_10887_321_322_10103,searchweb201603_51,ppcSwitch_0&amp;algo_expid=fbdfc942-55b2-4ec6-81b0-5b09b689e17d-0&amp;algo_pvid=fbdfc942-55b2-4ec6-81b0-5b09b689e17d&amp;transAbTest=ae803_3" xr:uid="{CD96A203-F1CE-4EAB-B6B2-E852524E5CC8}"/>
+    <hyperlink ref="D30" r:id="rId31" xr:uid="{AF21ABD0-0208-4C26-9EA1-547AB1D7509D}"/>
+    <hyperlink ref="D31" r:id="rId32" xr:uid="{6905CF05-F508-4220-8E58-12C65A1AB416}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK59"/>
@@ -4173,6 +5001,84 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC9EF3A-B47C-4181-9245-A8ABC831D0D8}">
+  <dimension ref="A1:AMJ2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="1024" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="I2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{B7162729-D729-4AF8-9E5B-595BD23EBD49}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
@@ -4367,7 +5273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I68"/>
   <sheetViews>
@@ -4919,7 +5825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMK40"/>
   <sheetViews>
@@ -6412,12 +7318,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6618,6 +7524,70 @@
         <v>236</v>
       </c>
       <c r="K6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B7" t="s">
+        <v>446</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="E7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H7" t="s">
+        <v>451</v>
+      </c>
+      <c r="I7" t="s">
+        <v>173</v>
+      </c>
+      <c r="J7" t="s">
+        <v>452</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>453</v>
+      </c>
+      <c r="B8" t="s">
+        <v>454</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="E8" t="s">
+        <v>456</v>
+      </c>
+      <c r="F8" t="s">
+        <v>457</v>
+      </c>
+      <c r="G8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" t="s">
+        <v>450</v>
+      </c>
+      <c r="I8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J8" t="s">
+        <v>458</v>
+      </c>
+      <c r="K8">
         <v>20</v>
       </c>
     </row>
@@ -6633,13 +7603,15 @@
     <hyperlink ref="D5" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
     <hyperlink ref="C6" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
     <hyperlink ref="D6" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="C7" r:id="rId11" xr:uid="{97B0A177-4692-47D2-998B-0D14537CA6EC}"/>
+    <hyperlink ref="C8" r:id="rId12" xr:uid="{803EC1B3-69A5-4F8D-9AC1-169F7D310C43}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -6709,12 +7681,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6752,78 +7724,107 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="285" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="F4" s="14"/>
+      <c r="G4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="I4">
-        <v>10</v>
+      <c r="I4" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="I5" s="14">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -6833,698 +7834,9 @@
     <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
     <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
     <hyperlink ref="D4" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{A9815803-BB11-4548-B792-A2602E630EBD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AMK29"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.85546875" style="1" customWidth="1"/>
-    <col min="2" max="4" width="11.42578125" style="1"/>
-    <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="88.5703125" style="7" customWidth="1"/>
-    <col min="7" max="1025" width="11.42578125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="195" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="255" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G12" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="G13" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="G14" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="G15" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="G16" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="G17" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="G18" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G19" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="G20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="210" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" t="s">
-        <v>418</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="G23" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" t="s">
-        <v>418</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="G24" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" t="s">
-        <v>421</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="G25" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" t="s">
-        <v>421</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G26" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" t="s">
-        <v>424</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="G27" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" t="s">
-        <v>427</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="G28" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D29" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="G29" s="1">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0800-000006000000}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0800-000007000000}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0800-000008000000}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0800-000009000000}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0800-00000A000000}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0800-00000B000000}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0800-00000C000000}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0800-00000D000000}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0800-00000E000000}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0800-00000F000000}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0800-000010000000}"/>
-    <hyperlink ref="D18" r:id="rId18" xr:uid="{00000000-0004-0000-0800-000011000000}"/>
-    <hyperlink ref="D19" r:id="rId19" xr:uid="{00000000-0004-0000-0800-000012000000}"/>
-    <hyperlink ref="D20" r:id="rId20" xr:uid="{00000000-0004-0000-0800-000013000000}"/>
-    <hyperlink ref="C21" r:id="rId21" xr:uid="{00000000-0004-0000-0800-000014000000}"/>
-    <hyperlink ref="D21" r:id="rId22" xr:uid="{00000000-0004-0000-0800-000015000000}"/>
-    <hyperlink ref="D22" r:id="rId23" xr:uid="{00000000-0004-0000-0800-000016000000}"/>
-    <hyperlink ref="D23" r:id="rId24" xr:uid="{00000000-0004-0000-0800-000017000000}"/>
-    <hyperlink ref="D24" r:id="rId25" xr:uid="{00000000-0004-0000-0800-000018000000}"/>
-    <hyperlink ref="D25" r:id="rId26" xr:uid="{00000000-0004-0000-0800-000019000000}"/>
-    <hyperlink ref="D26" r:id="rId27" xr:uid="{00000000-0004-0000-0800-00001A000000}"/>
-    <hyperlink ref="D27" r:id="rId28" xr:uid="{00000000-0004-0000-0800-00001B000000}"/>
-    <hyperlink ref="D28" r:id="rId29" xr:uid="{00000000-0004-0000-0800-00001C000000}"/>
-    <hyperlink ref="D29" r:id="rId30" display="https://www.aliexpress.com/item/100pcs-6-6-5mm-Light-touch-switch-DIP4-Touch-button-Touch-switch-6-6-5-keys/32866696732.html?spm=2114.search0104.3.1.5d9f4eb4dAjsi7&amp;ws_ab_test=searchweb0_0,searchweb201602_9_10065_10068_10547_319_317_10548_10696_10084_453_10083_454_10618_10304_10307_10820_10821_537_10302_536_10843_10059_10884_10887_321_322_10103,searchweb201603_51,ppcSwitch_0&amp;algo_expid=fbdfc942-55b2-4ec6-81b0-5b09b689e17d-0&amp;algo_pvid=fbdfc942-55b2-4ec6-81b0-5b09b689e17d&amp;transAbTest=ae803_3" xr:uid="{CD96A203-F1CE-4EAB-B6B2-E852524E5CC8}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>